--- a/Tabelas.xlsx
+++ b/Tabelas.xlsx
@@ -570,7 +570,7 @@
     <t>0.001052</t>
   </si>
   <si>
-    <t>-162.4</t>
+    <t>110.75</t>
   </si>
   <si>
     <t>469.21</t>
@@ -1162,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-162.4</v>
+        <v>110.75</v>
       </c>
       <c r="C9">
         <v>6495</v>

--- a/Tabelas.xlsx
+++ b/Tabelas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="210">
   <si>
     <t>Temperatura [°C]</t>
   </si>
@@ -118,6 +118,39 @@
   </si>
   <si>
     <t>η_sistema</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>Propriedade</t>
@@ -1279,71 +1312,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
         <v>27.9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.76</v>
-      </c>
-      <c r="D2">
-        <v>25.14</v>
       </c>
       <c r="E2">
         <v>25.14</v>
@@ -1352,13 +1385,13 @@
         <v>25.14</v>
       </c>
       <c r="G2">
-        <v>27.9</v>
+        <v>25.14</v>
       </c>
       <c r="H2">
         <v>27.9</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1370,27 +1403,30 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>50.64</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>27967.11</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.2926</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
         <v>27.9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.65</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2.62</v>
-      </c>
-      <c r="D3">
-        <v>24.63</v>
       </c>
       <c r="E3">
         <v>24.63</v>
@@ -1399,45 +1435,48 @@
         <v>24.63</v>
       </c>
       <c r="G3">
+        <v>24.63</v>
+      </c>
+      <c r="H3">
         <v>27.94</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>27.9</v>
-      </c>
-      <c r="I3">
-        <v>0.04</v>
       </c>
       <c r="J3">
         <v>0.04</v>
       </c>
       <c r="K3">
-        <v>0.6899999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="L3">
         <v>0.6899999999999999</v>
       </c>
       <c r="M3">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N3">
         <v>49.99</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>27632.76</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.2891</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
         <v>27.9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1.3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.48</v>
-      </c>
-      <c r="D4">
-        <v>24.12</v>
       </c>
       <c r="E4">
         <v>24.12</v>
@@ -1446,45 +1485,48 @@
         <v>24.12</v>
       </c>
       <c r="G4">
+        <v>24.12</v>
+      </c>
+      <c r="H4">
         <v>27.99</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>27.9</v>
-      </c>
-      <c r="I4">
-        <v>0.09</v>
       </c>
       <c r="J4">
         <v>0.09</v>
       </c>
       <c r="K4">
-        <v>1.39</v>
+        <v>0.09</v>
       </c>
       <c r="L4">
         <v>1.39</v>
       </c>
       <c r="M4">
+        <v>1.39</v>
+      </c>
+      <c r="N4">
         <v>49.08</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>27298.04</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.2856</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
         <v>27.9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1.95</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.34</v>
-      </c>
-      <c r="D5">
-        <v>23.62</v>
       </c>
       <c r="E5">
         <v>23.62</v>
@@ -1493,45 +1535,48 @@
         <v>23.62</v>
       </c>
       <c r="G5">
+        <v>23.62</v>
+      </c>
+      <c r="H5">
         <v>28.03</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>27.9</v>
-      </c>
-      <c r="I5">
-        <v>0.13</v>
       </c>
       <c r="J5">
         <v>0.13</v>
       </c>
       <c r="K5">
-        <v>2.08</v>
+        <v>0.13</v>
       </c>
       <c r="L5">
         <v>2.08</v>
       </c>
       <c r="M5">
+        <v>2.08</v>
+      </c>
+      <c r="N5">
         <v>47.97</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>26963.69</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.2821</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
         <v>27.9</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2.6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.19</v>
-      </c>
-      <c r="D6">
-        <v>23.11</v>
       </c>
       <c r="E6">
         <v>23.11</v>
@@ -1540,45 +1585,48 @@
         <v>23.11</v>
       </c>
       <c r="G6">
+        <v>23.11</v>
+      </c>
+      <c r="H6">
         <v>28.08</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>27.9</v>
-      </c>
-      <c r="I6">
-        <v>0.18</v>
       </c>
       <c r="J6">
         <v>0.18</v>
       </c>
       <c r="K6">
-        <v>2.78</v>
+        <v>0.18</v>
       </c>
       <c r="L6">
         <v>2.78</v>
       </c>
       <c r="M6">
+        <v>2.78</v>
+      </c>
+      <c r="N6">
         <v>46.72</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>26628.97</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.2786</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>27.9</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3.25</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.05</v>
-      </c>
-      <c r="D7">
-        <v>22.6</v>
       </c>
       <c r="E7">
         <v>22.6</v>
@@ -1587,45 +1635,48 @@
         <v>22.6</v>
       </c>
       <c r="G7">
+        <v>22.6</v>
+      </c>
+      <c r="H7">
         <v>28.12</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>27.9</v>
-      </c>
-      <c r="I7">
-        <v>0.22</v>
       </c>
       <c r="J7">
         <v>0.22</v>
       </c>
       <c r="K7">
-        <v>3.47</v>
+        <v>0.22</v>
       </c>
       <c r="L7">
         <v>3.47</v>
       </c>
       <c r="M7">
+        <v>3.47</v>
+      </c>
+      <c r="N7">
         <v>45.4</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>26294.62</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.2751</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
         <v>27.9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3.9</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.91</v>
-      </c>
-      <c r="D8">
-        <v>22.09</v>
       </c>
       <c r="E8">
         <v>22.09</v>
@@ -1634,45 +1685,48 @@
         <v>22.09</v>
       </c>
       <c r="G8">
+        <v>22.09</v>
+      </c>
+      <c r="H8">
         <v>28.17</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>27.9</v>
-      </c>
-      <c r="I8">
-        <v>0.27</v>
       </c>
       <c r="J8">
         <v>0.27</v>
       </c>
       <c r="K8">
-        <v>4.16</v>
+        <v>0.27</v>
       </c>
       <c r="L8">
         <v>4.16</v>
       </c>
       <c r="M8">
+        <v>4.16</v>
+      </c>
+      <c r="N8">
         <v>44.09</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>25959.9</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.2716</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
         <v>27.9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>4.55</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.77</v>
-      </c>
-      <c r="D9">
-        <v>21.59</v>
       </c>
       <c r="E9">
         <v>21.59</v>
@@ -1681,45 +1735,48 @@
         <v>21.59</v>
       </c>
       <c r="G9">
+        <v>21.59</v>
+      </c>
+      <c r="H9">
         <v>28.21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>27.9</v>
-      </c>
-      <c r="I9">
-        <v>0.31</v>
       </c>
       <c r="J9">
         <v>0.31</v>
       </c>
       <c r="K9">
-        <v>4.86</v>
+        <v>0.31</v>
       </c>
       <c r="L9">
         <v>4.86</v>
       </c>
       <c r="M9">
+        <v>4.86</v>
+      </c>
+      <c r="N9">
         <v>42.85</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>25625.55</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.2681</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
         <v>27.9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>5.19</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.62</v>
-      </c>
-      <c r="D10">
-        <v>21.08</v>
       </c>
       <c r="E10">
         <v>21.08</v>
@@ -1728,45 +1785,48 @@
         <v>21.08</v>
       </c>
       <c r="G10">
+        <v>21.08</v>
+      </c>
+      <c r="H10">
         <v>28.26</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>27.9</v>
-      </c>
-      <c r="I10">
-        <v>0.36</v>
       </c>
       <c r="J10">
         <v>0.36</v>
       </c>
       <c r="K10">
-        <v>5.55</v>
+        <v>0.36</v>
       </c>
       <c r="L10">
         <v>5.55</v>
       </c>
       <c r="M10">
+        <v>5.55</v>
+      </c>
+      <c r="N10">
         <v>41.76</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>25290.83</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.2646</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
         <v>27.9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>5.84</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.48</v>
-      </c>
-      <c r="D11">
-        <v>20.57</v>
       </c>
       <c r="E11">
         <v>20.57</v>
@@ -1775,45 +1835,48 @@
         <v>20.57</v>
       </c>
       <c r="G11">
+        <v>20.57</v>
+      </c>
+      <c r="H11">
         <v>28.3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>27.9</v>
-      </c>
-      <c r="I11">
-        <v>0.4</v>
       </c>
       <c r="J11">
         <v>0.4</v>
       </c>
       <c r="K11">
-        <v>6.25</v>
+        <v>0.4</v>
       </c>
       <c r="L11">
         <v>6.25</v>
       </c>
       <c r="M11">
+        <v>6.25</v>
+      </c>
+      <c r="N11">
         <v>40.86</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>24956.48</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.2611</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12">
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
         <v>27.9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>6.49</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.34</v>
-      </c>
-      <c r="D12">
-        <v>20.07</v>
       </c>
       <c r="E12">
         <v>20.07</v>
@@ -1822,30 +1885,33 @@
         <v>20.07</v>
       </c>
       <c r="G12">
+        <v>20.07</v>
+      </c>
+      <c r="H12">
         <v>28.35</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>27.9</v>
-      </c>
-      <c r="I12">
-        <v>0.45</v>
       </c>
       <c r="J12">
         <v>0.45</v>
       </c>
       <c r="K12">
-        <v>6.94</v>
+        <v>0.45</v>
       </c>
       <c r="L12">
         <v>6.94</v>
       </c>
       <c r="M12">
+        <v>6.94</v>
+      </c>
+      <c r="N12">
         <v>40.2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>24621.76</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.2576</v>
       </c>
     </row>
@@ -1864,10 +1930,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1911,43 +1977,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1955,43 +2021,43 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1999,43 +2065,43 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2043,43 +2109,43 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M5" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N5" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2087,43 +2153,43 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K6" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N6" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2131,43 +2197,43 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2175,43 +2241,43 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K8" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L8" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M8" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N8" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2219,43 +2285,43 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K9" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M9" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N9" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2263,43 +2329,43 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K10" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L10" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N10" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2307,43 +2373,43 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K11" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L11" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N11" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2351,43 +2417,43 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L12" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N12" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2395,43 +2461,43 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2439,43 +2505,43 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2483,43 +2549,43 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2527,43 +2593,43 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2571,43 +2637,43 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2615,43 +2681,43 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2659,43 +2725,43 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2703,43 +2769,43 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2747,43 +2813,43 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2791,43 +2857,43 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2835,43 +2901,43 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2879,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -2888,13 +2954,13 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
@@ -2912,10 +2978,10 @@
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2923,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -2932,13 +2998,13 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
@@ -2956,10 +3022,10 @@
         <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2967,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -2976,13 +3042,13 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
@@ -3000,10 +3066,10 @@
         <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3011,7 +3077,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3020,13 +3086,13 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
         <v>18</v>
@@ -3044,10 +3110,10 @@
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3055,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3064,13 +3130,13 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
         <v>18</v>
@@ -3088,10 +3154,10 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3099,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3108,13 +3174,13 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
@@ -3132,10 +3198,10 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3143,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -3152,13 +3218,13 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -3176,10 +3242,10 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N30" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3187,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3196,13 +3262,13 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -3220,10 +3286,10 @@
         <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N31" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3231,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3240,13 +3306,13 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
@@ -3264,10 +3330,10 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3275,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
@@ -3284,13 +3350,13 @@
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
         <v>18</v>
@@ -3308,10 +3374,10 @@
         <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3319,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -3328,13 +3394,13 @@
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
         <v>18</v>
@@ -3352,10 +3418,10 @@
         <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3363,43 +3429,43 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="H35" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J35" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M35" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N35" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3407,43 +3473,43 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J36" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M36" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N36" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3451,43 +3517,43 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M37" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N37" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3495,43 +3561,43 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J38" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M38" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N38" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3539,43 +3605,43 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H39" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I39" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J39" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M39" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N39" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3583,43 +3649,43 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I40" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J40" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M40" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N40" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3627,43 +3693,43 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H41" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I41" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J41" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M41" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N41" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3671,43 +3737,43 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J42" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M42" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N42" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3715,43 +3781,43 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="I43" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J43" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L43" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N43" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3759,43 +3825,43 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G44" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I44" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J44" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K44" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M44" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N44" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3803,43 +3869,43 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I45" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J45" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L45" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M45" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="N45" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3847,43 +3913,43 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J46" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L46" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M46" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N46" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3891,43 +3957,43 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I47" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J47" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K47" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L47" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M47" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N47" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3935,43 +4001,43 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J48" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M48" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N48" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3979,43 +4045,43 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G49" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J49" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N49" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4023,43 +4089,43 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J50" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N50" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4067,43 +4133,43 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J51" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K51" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L51" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M51" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N51" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4111,43 +4177,43 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J52" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L52" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M52" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N52" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -4155,43 +4221,43 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G53" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J53" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K53" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L53" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M53" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N53" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -4199,43 +4265,43 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G54" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J54" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K54" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M54" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N54" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4243,43 +4309,43 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G55" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H55" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J55" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K55" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L55" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M55" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N55" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -4287,43 +4353,43 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J56" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M56" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N56" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4331,43 +4397,43 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G57" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H57" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I57" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J57" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K57" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L57" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N57" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4375,43 +4441,43 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G58" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H58" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I58" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J58" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K58" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L58" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M58" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N58" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4419,43 +4485,43 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G59" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H59" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I59" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J59" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K59" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L59" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N59" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4463,43 +4529,43 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H60" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I60" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J60" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L60" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N60" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4507,43 +4573,43 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H61" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I61" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J61" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K61" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L61" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M61" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N61" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4551,43 +4617,43 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G62" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H62" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I62" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J62" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K62" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L62" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M62" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N62" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4595,43 +4661,43 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G63" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H63" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J63" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K63" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L63" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M63" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N63" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4639,43 +4705,43 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G64" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H64" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I64" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J64" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K64" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L64" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M64" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N64" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4683,43 +4749,43 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H65" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I65" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J65" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K65" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L65" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M65" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N65" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4727,43 +4793,43 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H66" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I66" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J66" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K66" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L66" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M66" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N66" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4771,43 +4837,43 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H67" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I67" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J67" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K67" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L67" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M67" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N67" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
